--- a/biology/Zoologie/Echinothuriidae/Echinothuriidae.xlsx
+++ b/biology/Zoologie/Echinothuriidae/Echinothuriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Echinothuriidae sont une famille d'oursins (échinodermes) de l'ordre des Echinothurioida. Leur corps flexible leur vaut le surnom d'« oursins cuir ».
 </t>
@@ -511,13 +523,15 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des oursins au corps discoïde et flexible, souvent de grande taille, dont la plupart vivent en eaux profondes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des oursins au corps discoïde et flexible, souvent de grande taille, dont la plupart vivent en eaux profondes.
 La carapace (« test ») est flexible, composée de plaques minces et peu calcifiées.
 Les piquants (« radioles ») sont disposés sur des mamelons perforés et non crénulés. Les radioles de la face orale se terminent par une excroissance cristalline en forme de goutte.
-La mâchoire (« Lanterne d'Aristote ») comporte cinq dents en gouttière (de type « aulodonte »)[2],[3].
-Cette famille est apparue au Crétacé supérieur[3].
+La mâchoire (« Lanterne d'Aristote ») comporte cinq dents en gouttière (de type « aulodonte »),.
+Cette famille est apparue au Crétacé supérieur.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (29 octobre 2013)[4] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (29 octobre 2013) : 
 Sous-famille Echinothuriinae Thomson, 1872a
 genre Araeosoma Mortensen, 1903b -- 19 espèces actuelles et 2 fossiles
 genre Asthenosoma Grube, 1868 -- 6 espèces actuelles et 1 fossile
